--- a/data/trans_orig/P14A29-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A29-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EAE44B3-84EE-4BC3-8C91-458EB2B9C9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B14C6B8-FA0E-4C0E-AABD-F448617F4BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{69824591-74C3-4142-B4DD-6E49D4454751}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7B286DD5-1BC6-41C5-AC42-9E5A0A99C1A4}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="174">
   <si>
     <t>Población que recibe medicación o terapia por osteoporosis en 2012 (Tasa respuesta: 2,07%)</t>
   </si>
@@ -162,19 +162,19 @@
     <t>79,14%</t>
   </si>
   <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
   </si>
   <si>
     <t>20,86%</t>
   </si>
   <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -201,7 +201,7 @@
     <t>86,83%</t>
   </si>
   <si>
-    <t>61,35%</t>
+    <t>65,94%</t>
   </si>
   <si>
     <t>96,67%</t>
@@ -210,10 +210,10 @@
     <t>83,93%</t>
   </si>
   <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
   </si>
   <si>
     <t>13,17%</t>
@@ -222,16 +222,16 @@
     <t>3,33%</t>
   </si>
   <si>
-    <t>38,65%</t>
+    <t>34,06%</t>
   </si>
   <si>
     <t>16,07%</t>
   </si>
   <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -258,49 +258,49 @@
     <t>47,77%</t>
   </si>
   <si>
-    <t>10,44%</t>
+    <t>9,98%</t>
   </si>
   <si>
     <t>87,06%</t>
   </si>
   <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
   </si>
   <si>
     <t>85,37%</t>
   </si>
   <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
   </si>
   <si>
     <t>52,23%</t>
   </si>
   <si>
-    <t>89,56%</t>
+    <t>90,02%</t>
   </si>
   <si>
     <t>12,94%</t>
   </si>
   <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
   </si>
   <si>
     <t>14,63%</t>
   </si>
   <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -360,13 +360,13 @@
     <t>82,86%</t>
   </si>
   <si>
-    <t>21,7%</t>
+    <t>29,2%</t>
   </si>
   <si>
     <t>17,14%</t>
   </si>
   <si>
-    <t>78,3%</t>
+    <t>70,8%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -375,19 +375,19 @@
     <t>75,33%</t>
   </si>
   <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
   </si>
   <si>
     <t>77,01%</t>
   </si>
   <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -396,19 +396,19 @@
     <t>24,67%</t>
   </si>
   <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
   </si>
   <si>
     <t>22,99%</t>
   </si>
   <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
   </si>
   <si>
     <t>83,7%</t>
@@ -420,7 +420,7 @@
     <t>88,31%</t>
   </si>
   <si>
-    <t>43,24%</t>
+    <t>50,94%</t>
   </si>
   <si>
     <t>16,3%</t>
@@ -432,7 +432,7 @@
     <t>11,69%</t>
   </si>
   <si>
-    <t>56,76%</t>
+    <t>49,06%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -441,19 +441,19 @@
     <t>78,85%</t>
   </si>
   <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
   </si>
   <si>
     <t>81,74%</t>
   </si>
   <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -462,97 +462,103 @@
     <t>21,15%</t>
   </si>
   <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
   </si>
   <si>
     <t>18,26%</t>
   </si>
   <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
   </si>
   <si>
     <t>79,77%</t>
   </si>
   <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
   </si>
   <si>
     <t>80,61%</t>
   </si>
   <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
   </si>
   <si>
     <t>20,23%</t>
   </si>
   <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
   </si>
   <si>
     <t>19,39%</t>
   </si>
   <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
   </si>
   <si>
     <t>93,19%</t>
   </si>
   <si>
-    <t>62,87%</t>
+    <t>65,76%</t>
   </si>
   <si>
     <t>81,5%</t>
   </si>
   <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
   </si>
   <si>
     <t>82,53%</t>
   </si>
   <si>
-    <t>74,84%</t>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
   </si>
   <si>
     <t>6,81%</t>
   </si>
   <si>
-    <t>37,13%</t>
+    <t>34,24%</t>
   </si>
   <si>
     <t>18,5%</t>
   </si>
   <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
   </si>
   <si>
     <t>17,47%</t>
   </si>
   <si>
-    <t>25,16%</t>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
   </si>
 </sst>
 </file>
@@ -964,7 +970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E98B2224-DA48-48D7-8904-20197828BD2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98735A8-07F0-4793-94BF-9C9D3792DC5A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2459,7 +2465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BEF5BCB-2874-406E-9611-89520D230E9D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6717AEE4-7D52-482B-8F3F-1B42C2A4BDC4}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3847,7 +3853,7 @@
         <v>164</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3862,13 +3868,13 @@
         <v>802</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H29" s="7">
         <v>20</v>
@@ -3877,13 +3883,13 @@
         <v>22598</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M29" s="7">
         <v>21</v>
@@ -3892,13 +3898,13 @@
         <v>23400</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14A29-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A29-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B14C6B8-FA0E-4C0E-AABD-F448617F4BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D203229D-D960-440E-B2A5-7E8435243747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7B286DD5-1BC6-41C5-AC42-9E5A0A99C1A4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B820E90C-96AD-418C-A809-1762713EDF16}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="176">
   <si>
     <t>Población que recibe medicación o terapia por osteoporosis en 2012 (Tasa respuesta: 2,07%)</t>
   </si>
@@ -93,19 +93,19 @@
     <t>71,22%</t>
   </si>
   <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
   </si>
   <si>
     <t>63,75%</t>
   </si>
   <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
   </si>
   <si>
     <t>69,64%</t>
@@ -114,19 +114,19 @@
     <t>28,78%</t>
   </si>
   <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
   </si>
   <si>
     <t>36,25%</t>
   </si>
   <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
   </si>
   <si>
     <t>100%</t>
@@ -162,19 +162,19 @@
     <t>79,14%</t>
   </si>
   <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
   </si>
   <si>
     <t>20,86%</t>
   </si>
   <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -201,37 +201,37 @@
     <t>86,83%</t>
   </si>
   <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
   </si>
   <si>
     <t>83,93%</t>
   </si>
   <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
   </si>
   <si>
     <t>13,17%</t>
   </si>
   <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
   </si>
   <si>
     <t>16,07%</t>
   </si>
   <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -240,109 +240,115 @@
     <t>95,9%</t>
   </si>
   <si>
+    <t>82,79%</t>
+  </si>
+  <si>
     <t>96,04%</t>
   </si>
   <si>
-    <t>81,33%</t>
+    <t>80,75%</t>
   </si>
   <si>
     <t>4,1%</t>
   </si>
   <si>
+    <t>17,21%</t>
+  </si>
+  <si>
     <t>3,96%</t>
   </si>
   <si>
-    <t>18,67%</t>
+    <t>19,25%</t>
   </si>
   <si>
     <t>47,77%</t>
   </si>
   <si>
-    <t>9,98%</t>
+    <t>10,49%</t>
   </si>
   <si>
     <t>87,06%</t>
   </si>
   <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
   </si>
   <si>
     <t>85,37%</t>
   </si>
   <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
   </si>
   <si>
     <t>52,23%</t>
   </si>
   <si>
-    <t>90,02%</t>
+    <t>89,51%</t>
   </si>
   <si>
     <t>12,94%</t>
   </si>
   <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
   </si>
   <si>
     <t>14,63%</t>
   </si>
   <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por osteoporosis en 2015 (Tasa respuesta: 1,8%)</t>
+    <t>Población que recibe medicación o terapia por osteoporosis en 2016 (Tasa respuesta: 1,8%)</t>
   </si>
   <si>
     <t>72,53%</t>
   </si>
   <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
   </si>
   <si>
     <t>68,22%</t>
   </si>
   <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
   </si>
   <si>
     <t>27,47%</t>
   </si>
   <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
   </si>
   <si>
     <t>31,78%</t>
   </si>
   <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
   </si>
   <si>
     <t>88,17%</t>
@@ -375,19 +381,19 @@
     <t>75,33%</t>
   </si>
   <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
   </si>
   <si>
     <t>77,01%</t>
   </si>
   <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -396,43 +402,43 @@
     <t>24,67%</t>
   </si>
   <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
   </si>
   <si>
     <t>22,99%</t>
   </si>
   <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
   </si>
   <si>
     <t>83,7%</t>
   </si>
   <si>
-    <t>32,61%</t>
+    <t>33,34%</t>
   </si>
   <si>
     <t>88,31%</t>
   </si>
   <si>
-    <t>50,94%</t>
+    <t>45,47%</t>
   </si>
   <si>
     <t>16,3%</t>
   </si>
   <si>
-    <t>67,39%</t>
+    <t>66,66%</t>
   </si>
   <si>
     <t>11,69%</t>
   </si>
   <si>
-    <t>49,06%</t>
+    <t>54,53%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -441,19 +447,19 @@
     <t>78,85%</t>
   </si>
   <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
   </si>
   <si>
     <t>81,74%</t>
   </si>
   <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -462,103 +468,103 @@
     <t>21,15%</t>
   </si>
   <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
   </si>
   <si>
     <t>18,26%</t>
   </si>
   <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
   </si>
   <si>
     <t>79,77%</t>
   </si>
   <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
   </si>
   <si>
     <t>80,61%</t>
   </si>
   <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
   </si>
   <si>
     <t>20,23%</t>
   </si>
   <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
   </si>
   <si>
     <t>19,39%</t>
   </si>
   <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
   </si>
   <si>
     <t>93,19%</t>
   </si>
   <si>
-    <t>65,76%</t>
+    <t>62,41%</t>
   </si>
   <si>
     <t>81,5%</t>
   </si>
   <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
   </si>
   <si>
     <t>82,53%</t>
   </si>
   <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
   </si>
   <si>
     <t>6,81%</t>
   </si>
   <si>
-    <t>34,24%</t>
+    <t>37,59%</t>
   </si>
   <si>
     <t>18,5%</t>
   </si>
   <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
   </si>
   <si>
     <t>17,47%</t>
   </si>
   <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
   </si>
 </sst>
 </file>
@@ -970,7 +976,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98735A8-07F0-4793-94BF-9C9D3792DC5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CFD5630-CF76-432D-B3DF-8E299CECD448}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2161,7 +2167,7 @@
         <v>66</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>16</v>
@@ -2173,10 +2179,10 @@
         <v>28707</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>16</v>
@@ -2209,13 +2215,13 @@
         <v>1183</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2224,13 +2230,13 @@
         <v>1183</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2298,10 +2304,10 @@
         <v>3040</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>16</v>
@@ -2313,13 +2319,13 @@
         <v>122963</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M28" s="7">
         <v>118</v>
@@ -2328,13 +2334,13 @@
         <v>126003</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2349,13 +2355,13 @@
         <v>3325</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H29" s="7">
         <v>15</v>
@@ -2364,13 +2370,13 @@
         <v>18276</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M29" s="7">
         <v>17</v>
@@ -2379,13 +2385,13 @@
         <v>21601</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2441,7 +2447,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2465,7 +2471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6717AEE4-7D52-482B-8F3F-1B42C2A4BDC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2970A749-4E8A-4983-B207-F86A9C6033BE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2482,7 +2488,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2604,13 +2610,13 @@
         <v>9202</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -2619,13 +2625,13 @@
         <v>9201</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2655,13 +2661,13 @@
         <v>3485</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -2670,13 +2676,13 @@
         <v>4287</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2762,7 +2768,7 @@
         <v>16</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>30</v>
@@ -2777,7 +2783,7 @@
         <v>16</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>30</v>
@@ -2816,7 +2822,7 @@
         <v>35</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2831,7 +2837,7 @@
         <v>35</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,10 +2918,10 @@
         <v>4359</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>16</v>
@@ -2927,10 +2933,10 @@
         <v>4359</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>16</v>
@@ -2961,13 +2967,13 @@
         <v>902</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -2976,13 +2982,13 @@
         <v>902</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3051,7 +3057,7 @@
         <v>16</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>30</v>
@@ -3063,13 +3069,13 @@
         <v>18797</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -3078,13 +3084,13 @@
         <v>20624</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3105,7 +3111,7 @@
         <v>35</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -3114,13 +3120,13 @@
         <v>6156</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -3129,13 +3135,13 @@
         <v>6156</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3219,7 +3225,7 @@
         <v>16</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>30</v>
@@ -3234,7 +3240,7 @@
         <v>16</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>30</v>
@@ -3271,7 +3277,7 @@
         <v>35</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3286,7 +3292,7 @@
         <v>35</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3355,7 +3361,7 @@
         <v>16</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>30</v>
@@ -3367,10 +3373,10 @@
         <v>5199</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>16</v>
@@ -3382,10 +3388,10 @@
         <v>7647</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>16</v>
@@ -3409,7 +3415,7 @@
         <v>35</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3418,13 +3424,13 @@
         <v>1012</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3433,13 +3439,13 @@
         <v>1012</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3510,7 +3516,7 @@
         <v>16</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>30</v>
@@ -3522,13 +3528,13 @@
         <v>25100</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M22" s="7">
         <v>27</v>
@@ -3537,13 +3543,13 @@
         <v>30133</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3564,7 +3570,7 @@
         <v>35</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -3573,13 +3579,13 @@
         <v>6732</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
@@ -3588,13 +3594,13 @@
         <v>6732</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,13 +3683,13 @@
         <v>16998</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -3692,13 +3698,13 @@
         <v>17918</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,13 +3734,13 @@
         <v>4311</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -3743,13 +3749,13 @@
         <v>4311</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3817,10 +3823,10 @@
         <v>10970</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>16</v>
@@ -3832,13 +3838,13 @@
         <v>99565</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M28" s="7">
         <v>97</v>
@@ -3847,13 +3853,13 @@
         <v>110535</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3868,13 +3874,13 @@
         <v>802</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H29" s="7">
         <v>20</v>
@@ -3883,13 +3889,13 @@
         <v>22598</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M29" s="7">
         <v>21</v>
@@ -3898,13 +3904,13 @@
         <v>23400</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3960,7 +3966,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
